--- a/BMAOI_Dbox-DataFrames/Calibrator_files_v1.xlsx
+++ b/BMAOI_Dbox-DataFrames/Calibrator_files_v1.xlsx
@@ -661,7 +661,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +690,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -740,7 +746,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -772,6 +778,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1115,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="G73" workbookViewId="0">
+      <selection activeCell="AF103" sqref="AF103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12125,6 +12134,7 @@
       <c r="A101" s="13" t="s">
         <v>203</v>
       </c>
+      <c r="AC101" s="14"/>
       <c r="AM101" t="str">
         <f>AM100&amp;", "</f>
         <v xml:space="preserve">N/A, </v>
